--- a/Basefile Code/Parameters/Basefiles Parameters.xlsx
+++ b/Basefile Code/Parameters/Basefiles Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="28455" windowHeight="11085"/>
+    <workbookView xWindow="-12735" yWindow="5985" windowWidth="28455" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TBRLRate</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>DrawdownGt95</t>
-  </si>
-  <si>
-    <t>DepCauseProp</t>
   </si>
 </sst>
 </file>
@@ -120,13 +117,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,16 +439,13 @@
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="17" width="16.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="16.28515625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="20" width="16.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -479,44 +473,41 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -544,44 +535,41 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>2000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0.04</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>0.05</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0.06</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>0.09</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="4">
         <v>0.7</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="4">
         <v>0.2</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <v>0.4</v>
       </c>
-      <c r="U2" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -609,44 +597,41 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0.04</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>0.05</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.06</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>0.09</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <v>0.7</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <v>0.2</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="4">
         <v>0.4</v>
       </c>
-      <c r="U3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -674,44 +659,41 @@
       <c r="I4" s="1">
         <v>0.02</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>2000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0.04</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>0.05</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.06</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>0.09</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <v>0.7</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4">
         <v>0.2</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="4">
         <v>0.4</v>
       </c>
-      <c r="U4" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -739,44 +721,41 @@
       <c r="I5" s="1">
         <v>0.02</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>2000</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>0.04</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>0.05</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.06</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>0.09</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <v>0.7</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="4">
         <v>0.2</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="4">
         <v>0.4</v>
       </c>
-      <c r="U5" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -804,44 +783,41 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>2000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0.04</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>0.05</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.06</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>0.09</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>0.7</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>0.2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>0.4</v>
       </c>
-      <c r="U6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -869,44 +845,41 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>2000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0.04</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>0.05</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.06</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>0.09</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="4">
         <v>0.7</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="4">
         <v>0.2</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="4">
         <v>0.4</v>
       </c>
-      <c r="U7" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
@@ -926,7 +899,7 @@
         <v>0.45</v>
       </c>
       <c r="G8" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -934,44 +907,41 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>2000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0.04</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>0.05</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0.06</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>0.09</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="4">
         <v>0.7</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="4">
         <v>0.2</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="4">
         <v>0.4</v>
       </c>
-      <c r="U8" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -991,7 +961,7 @@
         <v>0.45</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -999,44 +969,455 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>2000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0.04</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>0.05</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.06</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>0.09</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>0.11</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="4">
         <v>0.7</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="4">
         <v>0.2</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="4">
         <v>0.4</v>
       </c>
-      <c r="U9" s="1">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>